--- a/bases/PROMOTORES_PERIFERIA.xlsx
+++ b/bases/PROMOTORES_PERIFERIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pietro.abrahamian\Desktop\gerencie_py\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F2D524-ACE8-4E65-A13A-3F6ADAD30383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0286B6C-FC39-4100-85F1-AF178B87069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12EF049E-292D-4C49-8742-AAEE94E2B46D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12EF049E-292D-4C49-8742-AAEE94E2B46D}"/>
   </bookViews>
   <sheets>
     <sheet name="PROMOTORES" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/bases/PROMOTORES_PERIFERIA.xlsx
+++ b/bases/PROMOTORES_PERIFERIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pietro.abrahamian\Desktop\gerencie_py\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0286B6C-FC39-4100-85F1-AF178B87069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8819F0A7-1319-472C-AA3C-6381FF778885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12EF049E-292D-4C49-8742-AAEE94E2B46D}"/>
+    <workbookView xWindow="-23136" yWindow="0" windowWidth="10788" windowHeight="12336" xr2:uid="{12EF049E-292D-4C49-8742-AAEE94E2B46D}"/>
   </bookViews>
   <sheets>
     <sheet name="PROMOTORES" sheetId="1" r:id="rId1"/>
@@ -485,90 +485,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD5B835-C93C-456A-B433-C781F0F2835F}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
